--- a/assets uarm/2024 1/larecsm.xlsx
+++ b/assets uarm/2024 1/larecsm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
   <si>
     <t>la RECSM</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Jaramillo</t>
   </si>
   <si>
-    <t>Laguno</t>
-  </si>
-  <si>
     <t>Lapa</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>Venero</t>
   </si>
   <si>
-    <t xml:space="preserve">12 o 17? </t>
-  </si>
-  <si>
     <t>92 pero otra referencia :S?</t>
   </si>
   <si>
@@ -380,9 +374,6 @@
     <t>gpt</t>
   </si>
   <si>
-    <t>15?</t>
-  </si>
-  <si>
     <t>casi plagio</t>
   </si>
   <si>
@@ -392,9 +383,6 @@
     <t>distintas fuentes, gpt</t>
   </si>
   <si>
-    <t>17?</t>
-  </si>
-  <si>
     <t>92  citado como 95, absoluto</t>
   </si>
   <si>
@@ -404,9 +392,6 @@
     <t>92, absoluto, GPT? Mat Común? Pasaje sospechosamente similar</t>
   </si>
   <si>
-    <t>14?</t>
-  </si>
-  <si>
     <t>pasaje sospechosamente similar GPT</t>
   </si>
   <si>
@@ -416,13 +401,22 @@
     <t>GPT, material común, sin citas, casi plagio</t>
   </si>
   <si>
-    <t>11? Gpt</t>
-  </si>
-  <si>
     <t>92, sin citas</t>
   </si>
   <si>
     <t>Gaytan</t>
+  </si>
+  <si>
+    <t>Laguna</t>
+  </si>
+  <si>
+    <t>bien pero nunca se habló de los textos del contrl</t>
+  </si>
+  <si>
+    <t>demasiado general, poco específico, no se menciona lo importante</t>
+  </si>
+  <si>
+    <t>Muy general el desarrollo, no se cita bien</t>
   </si>
 </sst>
 </file>
@@ -439,7 +433,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -751,7 +744,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,6 +836,9 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -855,6 +851,9 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,18 +924,18 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C4">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C5">
@@ -955,18 +954,18 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>121</v>
+      <c r="C7">
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8">
@@ -996,7 +995,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C11">
@@ -1007,14 +1006,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C12">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,11 +1024,11 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14">
@@ -1037,18 +1036,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C15">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C16">
@@ -1059,176 +1058,194 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C18">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C19">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
-        <v>129</v>
+      <c r="C20">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>131</v>
+      <c r="B21" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
-        <v>125</v>
+      <c r="C26">
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="s">
-        <v>113</v>
+      <c r="C27">
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C28">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C29">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="s">
-        <v>117</v>
+      <c r="C30">
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C31">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
-        <v>117</v>
+      <c r="C32">
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C33">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1242,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,170 +1292,272 @@
       <c r="B4" t="s">
         <v>79</v>
       </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>80</v>
       </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>81</v>
       </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>82</v>
       </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>83</v>
       </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>84</v>
       </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>85</v>
       </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>86</v>
       </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>87</v>
       </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>88</v>
       </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>89</v>
       </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>90</v>
       </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>112</v>
+      <c r="C37">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1570,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,6 +1602,9 @@
       <c r="B4" t="s">
         <v>57</v>
       </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1493,41 +1615,65 @@
       <c r="B6" t="s">
         <v>59</v>
       </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>60</v>
       </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>61</v>
       </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>62</v>
       </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>63</v>
       </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>38</v>
       </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>65</v>
       </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>64</v>
       </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1538,60 +1684,99 @@
       <c r="B15" t="s">
         <v>67</v>
       </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>78</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/assets uarm/2024 1/larecsm.xlsx
+++ b/assets uarm/2024 1/larecsm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
   <si>
     <t>la RECSM</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>Muy general el desarrollo, no se cita bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -894,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1146,7 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
@@ -1247,6 +1250,9 @@
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>92</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>93</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>94</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>95</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>96</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>97</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>126</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>98</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>99</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>100</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -1486,12 +1492,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>103</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>104</v>
       </c>
@@ -1507,12 +1513,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>106</v>
       </c>

--- a/assets uarm/2024 1/larecsm.xlsx
+++ b/assets uarm/2024 1/larecsm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +789,9 @@
       <c r="C5">
         <v>17</v>
       </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -797,6 +800,9 @@
       <c r="C6">
         <v>17</v>
       </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -813,6 +819,9 @@
       <c r="C8">
         <v>17</v>
       </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -834,6 +843,9 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -850,6 +862,9 @@
       <c r="C13">
         <v>18</v>
       </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -875,15 +890,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -897,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/assets uarm/2024 1/larecsm.xlsx
+++ b/assets uarm/2024 1/larecsm.xlsx
@@ -747,7 +747,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,6 +854,9 @@
       <c r="C12">
         <v>17</v>
       </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -873,12 +876,18 @@
       <c r="C14">
         <v>17</v>
       </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
         <v>16</v>
       </c>
     </row>
@@ -888,6 +897,9 @@
       </c>
       <c r="C16">
         <v>17</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">

--- a/assets uarm/2024 1/larecsm.xlsx
+++ b/assets uarm/2024 1/larecsm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>la RECSM</t>
   </si>
@@ -365,58 +365,10 @@
     <t>Venero</t>
   </si>
   <si>
-    <t>92 pero otra referencia :S?</t>
-  </si>
-  <si>
-    <t>excelente!</t>
-  </si>
-  <si>
-    <t>gpt</t>
-  </si>
-  <si>
-    <t>casi plagio</t>
-  </si>
-  <si>
-    <t>92 pero bien contextualizada</t>
-  </si>
-  <si>
-    <t>distintas fuentes, gpt</t>
-  </si>
-  <si>
-    <t>92  citado como 95, absoluto</t>
-  </si>
-  <si>
-    <t>gpt? Material comun? Sino, muy bien</t>
-  </si>
-  <si>
-    <t>92, absoluto, GPT? Mat Común? Pasaje sospechosamente similar</t>
-  </si>
-  <si>
-    <t>pasaje sospechosamente similar GPT</t>
-  </si>
-  <si>
-    <t>92 sin citar! Casi plagio !</t>
-  </si>
-  <si>
-    <t>GPT, material común, sin citas, casi plagio</t>
-  </si>
-  <si>
-    <t>92, sin citas</t>
-  </si>
-  <si>
     <t>Gaytan</t>
   </si>
   <si>
     <t>Laguna</t>
-  </si>
-  <si>
-    <t>bien pero nunca se habló de los textos del contrl</t>
-  </si>
-  <si>
-    <t>demasiado general, poco específico, no se menciona lo importante</t>
-  </si>
-  <si>
-    <t>Muy general el desarrollo, no se cita bien</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -746,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -927,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,9 +915,6 @@
       <c r="C4">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -982,9 +931,6 @@
       <c r="C6">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>92</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -993,9 +939,6 @@
       <c r="C7">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1012,9 +955,6 @@
       <c r="C9">
         <v>18</v>
       </c>
-      <c r="D9">
-        <v>92</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -1023,9 +963,6 @@
       <c r="C10">
         <v>16</v>
       </c>
-      <c r="D10">
-        <v>92</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -1034,9 +971,6 @@
       <c r="C11">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>92</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1045,9 +979,6 @@
       <c r="C12">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1056,9 +987,6 @@
       <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1075,9 +1003,6 @@
       <c r="C15">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1086,44 +1011,32 @@
       <c r="C16">
         <v>17</v>
       </c>
-      <c r="D16">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C18">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C19">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1131,15 +1044,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1147,7 +1060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1155,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1163,7 +1076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1171,84 +1084,63 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C26">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
-      <c r="D27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C28">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C29">
         <v>16</v>
       </c>
-      <c r="D29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C30">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C31">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C32">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1256,28 +1148,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
-      <c r="D36">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>56</v>
       </c>
@@ -1296,7 +1185,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,9 +1220,6 @@
       <c r="C4">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1342,6 +1228,9 @@
       <c r="C5">
         <v>16</v>
       </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1350,6 +1239,9 @@
       <c r="C6">
         <v>15</v>
       </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1358,6 +1250,9 @@
       <c r="C7">
         <v>16</v>
       </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1366,6 +1261,9 @@
       <c r="C8">
         <v>17</v>
       </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1374,6 +1272,9 @@
       <c r="C9">
         <v>17</v>
       </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1382,6 +1283,9 @@
       <c r="C10">
         <v>17</v>
       </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1390,6 +1294,9 @@
       <c r="C11">
         <v>16</v>
       </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1398,6 +1305,9 @@
       <c r="C12">
         <v>17</v>
       </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1406,6 +1316,9 @@
       <c r="C13">
         <v>17</v>
       </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1414,6 +1327,9 @@
       <c r="C14">
         <v>17</v>
       </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1422,6 +1338,9 @@
       <c r="C15">
         <v>17</v>
       </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1438,6 +1357,9 @@
       <c r="C17">
         <v>16</v>
       </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -1446,6 +1368,9 @@
       <c r="C18">
         <v>17</v>
       </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1454,6 +1379,9 @@
       <c r="C19">
         <v>16</v>
       </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1462,6 +1390,9 @@
       <c r="C20">
         <v>16</v>
       </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1470,6 +1401,9 @@
       <c r="C21">
         <v>17</v>
       </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1478,16 +1412,19 @@
       <c r="C22">
         <v>16</v>
       </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
-        <v>129</v>
+      <c r="D23">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1497,6 +1434,9 @@
       <c r="C24">
         <v>17</v>
       </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1505,6 +1445,9 @@
       <c r="C25">
         <v>16</v>
       </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -1513,6 +1456,9 @@
       <c r="C26">
         <v>15</v>
       </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -1521,6 +1467,9 @@
       <c r="C27">
         <v>16</v>
       </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -1542,6 +1491,9 @@
       <c r="C30">
         <v>17</v>
       </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1550,8 +1502,11 @@
       <c r="C31">
         <v>16</v>
       </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1561,44 +1516,62 @@
       <c r="C32">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>107</v>
       </c>
       <c r="C33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>108</v>
       </c>
       <c r="C34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>109</v>
       </c>
       <c r="C35">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>110</v>
       </c>
       <c r="C36">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>111</v>
       </c>
       <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
         <v>18</v>
       </c>
     </row>
@@ -1611,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,6 +1620,9 @@
       <c r="C4">
         <v>17</v>
       </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1660,6 +1636,9 @@
       <c r="C6">
         <v>16</v>
       </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1668,6 +1647,9 @@
       <c r="C7">
         <v>16</v>
       </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1676,6 +1658,9 @@
       <c r="C8">
         <v>16</v>
       </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1684,6 +1669,9 @@
       <c r="C9">
         <v>18</v>
       </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1692,6 +1680,9 @@
       <c r="C10">
         <v>16</v>
       </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1700,6 +1691,9 @@
       <c r="C11">
         <v>15</v>
       </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1708,6 +1702,9 @@
       <c r="C12">
         <v>15</v>
       </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1716,11 +1713,17 @@
       <c r="C13">
         <v>17</v>
       </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>66</v>
       </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1729,6 +1732,9 @@
       <c r="C15">
         <v>16</v>
       </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1737,88 +1743,118 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>69</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>70</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>71</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>72</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>74</v>
       </c>
       <c r="C22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>75</v>
       </c>
       <c r="C23">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>76</v>
       </c>
       <c r="C24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="C25">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>78</v>
       </c>
       <c r="C26">
         <v>16</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets uarm/2024 1/larecsm.xlsx
+++ b/assets uarm/2024 1/larecsm.xlsx
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,6 +915,9 @@
       <c r="C4">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -923,6 +926,9 @@
       <c r="C5">
         <v>16</v>
       </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -931,6 +937,9 @@
       <c r="C6">
         <v>17</v>
       </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -939,6 +948,9 @@
       <c r="C7">
         <v>16</v>
       </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -947,6 +959,9 @@
       <c r="C8">
         <v>16</v>
       </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -955,6 +970,9 @@
       <c r="C9">
         <v>18</v>
       </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -963,6 +981,9 @@
       <c r="C10">
         <v>16</v>
       </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -971,6 +992,9 @@
       <c r="C11">
         <v>18</v>
       </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -979,6 +1003,9 @@
       <c r="C12">
         <v>19</v>
       </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -987,6 +1014,9 @@
       <c r="C13">
         <v>15</v>
       </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -995,6 +1025,9 @@
       <c r="C14">
         <v>18</v>
       </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1003,6 +1036,9 @@
       <c r="C15">
         <v>19</v>
       </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1011,167 +1047,233 @@
       <c r="C16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C25">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C28">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C29">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C30">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C31">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C33">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C37">
         <v>17</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1287,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/assets uarm/2024 1/larecsm.xlsx
+++ b/assets uarm/2024 1/larecsm.xlsx
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,10 +1199,10 @@
         <v>49</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,6 +1322,9 @@
       <c r="C4">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1584,6 +1587,9 @@
       </c>
       <c r="C29">
         <v>17</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">

--- a/assets uarm/2024 1/larecsm.xlsx
+++ b/assets uarm/2024 1/larecsm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +733,18 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -744,6 +756,12 @@
       <c r="D5">
         <v>16</v>
       </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -755,6 +773,12 @@
       <c r="D6">
         <v>17</v>
       </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -763,6 +787,12 @@
       <c r="C7">
         <v>18</v>
       </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -774,6 +804,12 @@
       <c r="D8">
         <v>18</v>
       </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -782,6 +818,15 @@
       <c r="C9">
         <v>18</v>
       </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -790,6 +835,15 @@
       <c r="C10">
         <v>18</v>
       </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -798,6 +852,15 @@
       <c r="C11">
         <v>16</v>
       </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -809,6 +872,12 @@
       <c r="D12">
         <v>17</v>
       </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -820,6 +889,12 @@
       <c r="D13">
         <v>18</v>
       </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -831,6 +906,12 @@
       <c r="D14">
         <v>17</v>
       </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -842,6 +923,12 @@
       <c r="D15">
         <v>16</v>
       </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -853,8 +940,14 @@
       <c r="D16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -864,8 +957,14 @@
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -879,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,6 +1017,9 @@
       <c r="D4">
         <v>19</v>
       </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -929,6 +1031,9 @@
       <c r="D5">
         <v>20</v>
       </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -940,6 +1045,9 @@
       <c r="D6">
         <v>19</v>
       </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -951,6 +1059,9 @@
       <c r="D7">
         <v>19</v>
       </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -962,6 +1073,9 @@
       <c r="D8">
         <v>20</v>
       </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -973,6 +1087,9 @@
       <c r="D9">
         <v>20</v>
       </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -984,6 +1101,9 @@
       <c r="D10">
         <v>17</v>
       </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -995,6 +1115,9 @@
       <c r="D11">
         <v>20</v>
       </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1006,6 +1129,9 @@
       <c r="D12">
         <v>18</v>
       </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1017,6 +1143,9 @@
       <c r="D13">
         <v>20</v>
       </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1028,6 +1157,9 @@
       <c r="D14">
         <v>20</v>
       </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1039,6 +1171,9 @@
       <c r="D15">
         <v>20</v>
       </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1050,8 +1185,11 @@
       <c r="D16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1061,8 +1199,11 @@
       <c r="D17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1072,8 +1213,11 @@
       <c r="D18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1083,8 +1227,11 @@
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1094,8 +1241,11 @@
       <c r="D20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>112</v>
       </c>
@@ -1105,8 +1255,11 @@
       <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1116,8 +1269,11 @@
       <c r="D22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1127,8 +1283,11 @@
       <c r="D23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1138,8 +1297,11 @@
       <c r="D24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1149,8 +1311,11 @@
       <c r="D25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1160,8 +1325,11 @@
       <c r="D26">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1171,8 +1339,11 @@
       <c r="D27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1182,8 +1353,11 @@
       <c r="D28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1193,8 +1367,11 @@
       <c r="D29">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1204,8 +1381,11 @@
       <c r="D30">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
@@ -1216,7 +1396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
@@ -1226,8 +1406,11 @@
       <c r="D32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1237,8 +1420,11 @@
       <c r="D33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
@@ -1246,15 +1432,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>55</v>
       </c>
@@ -1264,8 +1453,11 @@
       <c r="D36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>56</v>
       </c>
@@ -1274,6 +1466,9 @@
       </c>
       <c r="D37">
         <v>19</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1286,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,6 +1520,9 @@
       <c r="D4">
         <v>15</v>
       </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1336,6 +1534,9 @@
       <c r="D5">
         <v>16</v>
       </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1347,6 +1548,9 @@
       <c r="D6">
         <v>10</v>
       </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1358,6 +1562,9 @@
       <c r="D7">
         <v>16</v>
       </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1369,6 +1576,9 @@
       <c r="D8">
         <v>20</v>
       </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1380,6 +1590,9 @@
       <c r="D9">
         <v>20</v>
       </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1391,6 +1604,9 @@
       <c r="D10">
         <v>18</v>
       </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1402,6 +1618,9 @@
       <c r="D11">
         <v>18</v>
       </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1413,6 +1632,9 @@
       <c r="D12">
         <v>17</v>
       </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1424,6 +1646,9 @@
       <c r="D13">
         <v>16</v>
       </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1435,6 +1660,9 @@
       <c r="D14">
         <v>18</v>
       </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1446,6 +1674,9 @@
       <c r="D15">
         <v>20</v>
       </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1454,6 +1685,9 @@
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1465,6 +1699,9 @@
       <c r="D17">
         <v>20</v>
       </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -1476,6 +1713,9 @@
       <c r="D18">
         <v>20</v>
       </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1487,6 +1727,9 @@
       <c r="D19">
         <v>14</v>
       </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1498,6 +1741,9 @@
       <c r="D20">
         <v>18</v>
       </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1509,6 +1755,9 @@
       <c r="D21">
         <v>18</v>
       </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1520,6 +1769,9 @@
       <c r="D22">
         <v>16</v>
       </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1531,6 +1783,9 @@
       <c r="D23">
         <v>20</v>
       </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1542,6 +1797,9 @@
       <c r="D24">
         <v>18</v>
       </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1553,6 +1811,9 @@
       <c r="D25">
         <v>14</v>
       </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -1562,7 +1823,10 @@
         <v>15</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1575,11 +1839,17 @@
       <c r="D27">
         <v>12</v>
       </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>102</v>
       </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -1591,6 +1861,9 @@
       <c r="D29">
         <v>16</v>
       </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1602,6 +1875,9 @@
       <c r="D30">
         <v>18</v>
       </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1613,6 +1889,9 @@
       <c r="D31">
         <v>18</v>
       </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
       <c r="F31" t="s">
         <v>114</v>
       </c>
@@ -1627,8 +1906,11 @@
       <c r="D32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>107</v>
       </c>
@@ -1638,8 +1920,11 @@
       <c r="D33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>108</v>
       </c>
@@ -1649,8 +1934,11 @@
       <c r="D34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>109</v>
       </c>
@@ -1660,8 +1948,11 @@
       <c r="D35">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>110</v>
       </c>
@@ -1671,8 +1962,11 @@
       <c r="D36">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>111</v>
       </c>
@@ -1681,6 +1975,9 @@
       </c>
       <c r="D37">
         <v>18</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1692,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,6 +2028,9 @@
       <c r="D4">
         <v>17</v>
       </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1747,6 +2047,9 @@
       <c r="D6">
         <v>15</v>
       </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1758,6 +2061,9 @@
       <c r="D7">
         <v>16</v>
       </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1780,6 +2086,9 @@
       <c r="D9">
         <v>14</v>
       </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1791,6 +2100,9 @@
       <c r="D10">
         <v>19</v>
       </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1802,6 +2114,9 @@
       <c r="D11">
         <v>18</v>
       </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1813,6 +2128,9 @@
       <c r="D12">
         <v>17</v>
       </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1824,6 +2142,9 @@
       <c r="D13">
         <v>13</v>
       </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1832,6 +2153,9 @@
       <c r="D14">
         <v>19</v>
       </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1843,6 +2167,9 @@
       <c r="D15">
         <v>20</v>
       </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1854,8 +2181,11 @@
       <c r="D16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -1865,8 +2195,11 @@
       <c r="D17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -1876,8 +2209,11 @@
       <c r="D18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -1887,8 +2223,11 @@
       <c r="D19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>72</v>
       </c>
@@ -1898,8 +2237,11 @@
       <c r="D20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>73</v>
       </c>
@@ -1909,8 +2251,11 @@
       <c r="D21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -1920,8 +2265,11 @@
       <c r="D22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>75</v>
       </c>
@@ -1931,8 +2279,11 @@
       <c r="D23">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>76</v>
       </c>
@@ -1942,8 +2293,11 @@
       <c r="D24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -1953,8 +2307,11 @@
       <c r="D25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>78</v>
       </c>
@@ -1963,6 +2320,9 @@
       </c>
       <c r="D26">
         <v>19</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/assets uarm/2024 1/larecsm.xlsx
+++ b/assets uarm/2024 1/larecsm.xlsx
@@ -14,8 +14,8 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="118">
   <si>
     <t>la RECSM</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>sumatoria controles</t>
+  </si>
+  <si>
+    <t>/ 3</t>
   </si>
 </sst>
 </file>
@@ -696,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,12 +716,12 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -728,8 +737,17 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -745,8 +763,22 @@
       <c r="F4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f>C4+D4+E4+F4</f>
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <f>H4/4</f>
+        <v>15.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -762,8 +794,22 @@
       <c r="F5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" ref="H5:H17" si="0">C5+D5+E5+F5</f>
+        <v>66</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I17" si="1">H5/4</f>
+        <v>16.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -779,8 +825,22 @@
       <c r="F6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -793,8 +853,25 @@
       <c r="E7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -810,8 +887,22 @@
       <c r="F8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>17.25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -827,8 +918,22 @@
       <c r="F9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -844,8 +949,22 @@
       <c r="F10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -861,8 +980,22 @@
       <c r="F11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -878,8 +1011,22 @@
       <c r="F12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -895,8 +1042,22 @@
       <c r="F13">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -912,8 +1073,22 @@
       <c r="F14">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -929,8 +1104,22 @@
       <c r="F15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>14.75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -946,8 +1135,22 @@
       <c r="F16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -963,10 +1166,33 @@
       <c r="F17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -976,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,12 +1214,12 @@
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1020,8 +1246,22 @@
       <c r="E4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>C4+D4+E4</f>
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <f>G4/3</f>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1034,8 +1274,22 @@
       <c r="E5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G37" si="0">C5+D5+E5</f>
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H37" si="1">G5/3</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1048,8 +1302,22 @@
       <c r="E6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1062,8 +1330,22 @@
       <c r="E7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1076,8 +1358,22 @@
       <c r="E8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1090,8 +1386,22 @@
       <c r="E9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1104,8 +1414,22 @@
       <c r="E10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1118,8 +1442,22 @@
       <c r="E11">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1132,8 +1470,22 @@
       <c r="E12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1146,8 +1498,22 @@
       <c r="E13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1160,8 +1526,22 @@
       <c r="E14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1174,8 +1554,22 @@
       <c r="E15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1188,8 +1582,22 @@
       <c r="E16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1202,8 +1610,22 @@
       <c r="E17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1216,8 +1638,22 @@
       <c r="E18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1230,8 +1666,22 @@
       <c r="E19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1244,8 +1694,22 @@
       <c r="E20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>112</v>
       </c>
@@ -1258,8 +1722,22 @@
       <c r="E21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1272,8 +1750,22 @@
       <c r="E22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1286,8 +1778,22 @@
       <c r="E23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1300,8 +1806,22 @@
       <c r="E24">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1314,8 +1834,22 @@
       <c r="E25">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1328,8 +1862,22 @@
       <c r="E26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1342,8 +1890,22 @@
       <c r="E27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1356,8 +1918,22 @@
       <c r="E28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1370,8 +1946,22 @@
       <c r="E29">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1384,8 +1974,22 @@
       <c r="E30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
@@ -1395,8 +1999,22 @@
       <c r="D31">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
@@ -1409,8 +2027,22 @@
       <c r="E32">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1423,27 +2055,72 @@
       <c r="E33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
       <c r="D35">
         <v>20</v>
       </c>
       <c r="E35">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>55</v>
       </c>
@@ -1456,8 +2133,22 @@
       <c r="E36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>56</v>
       </c>
@@ -1468,6 +2159,20 @@
         <v>19</v>
       </c>
       <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37">
         <v>18</v>
       </c>
     </row>
@@ -1479,10 +2184,680 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <f>C4+D4+E4</f>
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <f>G4/3</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G26" si="0">C5+D5+E5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H26" si="1">G5/3</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,12 +2866,12 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1510,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>79</v>
       </c>
@@ -1523,8 +2898,22 @@
       <c r="E4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>C4+D4+E4</f>
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <f>G4/3</f>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>80</v>
       </c>
@@ -1537,8 +2926,22 @@
       <c r="E5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G37" si="0">C5+D5+E5</f>
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H37" si="1">G5/3</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>81</v>
       </c>
@@ -1551,8 +2954,22 @@
       <c r="E6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -1565,8 +2982,22 @@
       <c r="E7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>83</v>
       </c>
@@ -1579,8 +3010,22 @@
       <c r="E8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>84</v>
       </c>
@@ -1593,8 +3038,22 @@
       <c r="E9">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>85</v>
       </c>
@@ -1607,8 +3066,22 @@
       <c r="E10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -1621,8 +3094,22 @@
       <c r="E11">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>87</v>
       </c>
@@ -1635,8 +3122,22 @@
       <c r="E12">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>88</v>
       </c>
@@ -1649,8 +3150,22 @@
       <c r="E13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>89</v>
       </c>
@@ -1663,8 +3178,22 @@
       <c r="E14">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>90</v>
       </c>
@@ -1677,8 +3206,22 @@
       <c r="E15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>91</v>
       </c>
@@ -1688,8 +3231,22 @@
       <c r="E16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>92</v>
       </c>
@@ -1702,8 +3259,22 @@
       <c r="E17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>93</v>
       </c>
@@ -1716,8 +3287,22 @@
       <c r="E18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>94</v>
       </c>
@@ -1730,8 +3315,22 @@
       <c r="E19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>95</v>
       </c>
@@ -1744,8 +3343,22 @@
       <c r="E20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>96</v>
       </c>
@@ -1758,8 +3371,22 @@
       <c r="E21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>97</v>
       </c>
@@ -1772,8 +3399,22 @@
       <c r="E22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>113</v>
       </c>
@@ -1786,8 +3427,22 @@
       <c r="E23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>98</v>
       </c>
@@ -1800,8 +3455,22 @@
       <c r="E24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>99</v>
       </c>
@@ -1814,8 +3483,22 @@
       <c r="E25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>100</v>
       </c>
@@ -1828,8 +3511,22 @@
       <c r="E26">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="I26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -1842,16 +3539,44 @@
       <c r="E27">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>102</v>
       </c>
       <c r="E28">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="I28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>103</v>
       </c>
@@ -1864,8 +3589,22 @@
       <c r="E29">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>104</v>
       </c>
@@ -1878,8 +3617,22 @@
       <c r="E30">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>105</v>
       </c>
@@ -1895,8 +3648,22 @@
       <c r="F31" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>106</v>
       </c>
@@ -1909,8 +3676,22 @@
       <c r="E32">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>107</v>
       </c>
@@ -1923,8 +3704,22 @@
       <c r="E33">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="I33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>108</v>
       </c>
@@ -1937,8 +3732,22 @@
       <c r="E34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I34" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>109</v>
       </c>
@@ -1951,8 +3760,22 @@
       <c r="E35">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>110</v>
       </c>
@@ -1965,8 +3788,22 @@
       <c r="E36">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>111</v>
       </c>
@@ -1979,350 +3816,19 @@
       <c r="E37">
         <v>19</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24">
-        <v>17</v>
-      </c>
-      <c r="D24">
-        <v>19</v>
-      </c>
-      <c r="E24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26">
-        <v>16</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="I37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
